--- a/data/trans_orig/IQ23_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IQ23_R2-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E50DEFBD-55F5-499F-B81D-A700BAD5A08C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1722F111-1C85-4065-B989-A8322FB0B836}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9865B605-981A-42DA-B68B-504A49B15637}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{17FE1019-59FD-4C88-851D-F59748ED95B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="593">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="595">
   <si>
     <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2007 (Tasa respuesta: 99,33%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Más</t>
@@ -95,28 +95,28 @@
     <t>16,48%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
   </si>
   <si>
     <t>14,33%</t>
   </si>
   <si>
-    <t>3,85%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
   </si>
   <si>
     <t>15,47%</t>
   </si>
   <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>Sí</t>
@@ -125,40 +125,40 @@
     <t>83,52%</t>
   </si>
   <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
   </si>
   <si>
     <t>85,67%</t>
   </si>
   <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
+    <t>60,89%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
   <si>
     <t>84,53%</t>
   </si>
   <si>
-    <t>73,59%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,01%</t>
   </si>
   <si>
-    <t>3,36%</t>
+    <t>3,51%</t>
   </si>
   <si>
     <t>2,07%</t>
@@ -167,1657 +167,1663 @@
     <t>0,52%</t>
   </si>
   <si>
-    <t>5,23%</t>
+    <t>4,78%</t>
   </si>
   <si>
     <t>1,51%</t>
   </si>
   <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>77,4%</t>
+  </si>
+  <si>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>77,82%</t>
+  </si>
+  <si>
+    <t>73,41%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>72,71%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>81,58%</t>
+  </si>
+  <si>
+    <t>77,64%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>32,14%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>65,17%</t>
+  </si>
+  <si>
+    <t>77,01%</t>
+  </si>
+  <si>
+    <t>66,31%</t>
+  </si>
+  <si>
+    <t>60,03%</t>
+  </si>
+  <si>
+    <t>72,14%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>64,92%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>35,06%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>68,29%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>73,27%</t>
+  </si>
+  <si>
+    <t>71,23%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>76,55%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>76,6%</t>
+  </si>
+  <si>
+    <t>73,64%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>61,75%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
+  </si>
+  <si>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>27,43%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>66,3%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>68,15%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>69,08%</t>
+  </si>
+  <si>
+    <t>75,85%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>27,76%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>66,58%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>66,34%</t>
+  </si>
+  <si>
+    <t>60,37%</t>
+  </si>
+  <si>
+    <t>72,32%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>64,93%</t>
+  </si>
+  <si>
+    <t>73,25%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>0,71%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>26,25%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>65,58%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>66,25%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>71,43%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>71,52%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>69,46%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2016 (Tasa respuesta: 99,11%)</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>16,87%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>38,51%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>78,25%</t>
+  </si>
+  <si>
+    <t>57,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>79,91%</t>
+  </si>
+  <si>
+    <t>67,9%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>77,4%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
-  </si>
-  <si>
-    <t>82,46%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>77,82%</t>
-  </si>
-  <si>
-    <t>73,75%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>85,68%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>69,64%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>38,85%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>64,74%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>64,38%</t>
+  </si>
+  <si>
+    <t>58,71%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>64,57%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
+  </si>
+  <si>
+    <t>68,27%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>39,48%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>65,95%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>61,16%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>66,51%</t>
+  </si>
+  <si>
+    <t>62,43%</t>
+  </si>
+  <si>
+    <t>70,38%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
   </si>
   <si>
     <t>3,74%</t>
   </si>
   <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>16,87%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>82,47%</t>
-  </si>
-  <si>
-    <t>77,27%</t>
-  </si>
-  <si>
-    <t>72,54%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
-  </si>
-  <si>
-    <t>77,64%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>31,88%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>66,31%</t>
-  </si>
-  <si>
-    <t>60,18%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>69,17%</t>
-  </si>
-  <si>
-    <t>65,27%</t>
-  </si>
-  <si>
-    <t>73,31%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>29,45%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>34,76%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>32,94%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>35,72%</t>
+  </si>
+  <si>
+    <t>67,31%</t>
+  </si>
+  <si>
+    <t>60,78%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>67,18%</t>
+  </si>
+  <si>
+    <t>63,47%</t>
+  </si>
+  <si>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>31,51%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>29,53%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>32,6%</t>
   </si>
   <si>
-    <t>68,29%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>71,23%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>65,43%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>71,17%</t>
-  </si>
-  <si>
-    <t>76,53%</t>
-  </si>
-  <si>
-    <t>73,64%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>76,09%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>71,91%</t>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>69,82%</t>
+  </si>
+  <si>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>66,01%</t>
+  </si>
+  <si>
+    <t>71,68%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>69,63%</t>
+  </si>
+  <si>
+    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>38,93%</t>
   </si>
   <si>
     <t>75,93%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2012 (Tasa respuesta: 99,81%)</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>74,72%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>61,07%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>34,89%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
   </si>
   <si>
     <t>34,11%</t>
   </si>
   <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>83,17%</t>
-  </si>
-  <si>
-    <t>62,31%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>34,17%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>61,89%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>66,34%</t>
-  </si>
-  <si>
-    <t>76,14%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>77,72%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>71,7%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>77,83%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>26,24%</t>
+  </si>
+  <si>
+    <t>21,34%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>31,29%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>76,27%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,98%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>27,76%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,29%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>75,73%</t>
-  </si>
-  <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>66,09%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>71,43%</t>
-  </si>
-  <si>
-    <t>67,51%</t>
-  </si>
-  <si>
-    <t>75,05%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>32,95%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>40,96%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
+  </si>
+  <si>
+    <t>30,3%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>58,69%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>78,18%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>63,95%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>35,07%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
   </si>
   <si>
     <t>28,17%</t>
   </si>
   <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>28,32%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>27,35%</t>
-  </si>
-  <si>
-    <t>71,52%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>74,33%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>69,24%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2015 (Tasa respuesta: 99,11%)</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>78,25%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>66,04%</t>
-  </si>
-  <si>
-    <t>88,33%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>85,57%</t>
-  </si>
-  <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>78,17%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>39,1%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>30,18%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>64,74%</t>
-  </si>
-  <si>
-    <t>59,02%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>64,38%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>64,57%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
   </si>
   <si>
     <t>27,56%</t>
   </si>
   <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>60,27%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>66,51%</t>
-  </si>
-  <si>
-    <t>62,34%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>36,3%</t>
-  </si>
-  <si>
-    <t>32,94%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>67,31%</t>
-  </si>
-  <si>
-    <t>61,75%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>66,08%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,82%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>Menores en función de si duermen menos/más/igual de las horas recomendadas en función de su edad en 2023 (Tasa respuesta: 99,43%)</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>48,49%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>44,48%</t>
-  </si>
-  <si>
-    <t>24,75%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>37,8%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>74,72%</t>
-  </si>
-  <si>
-    <t>55,52%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>27,62%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>61,71%</t>
-  </si>
-  <si>
-    <t>77,53%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>64,67%</t>
-  </si>
-  <si>
-    <t>78,68%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>65,17%</t>
-  </si>
-  <si>
-    <t>76,05%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>26,24%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>30,26%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>32,95%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>40,49%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>66,58%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>72,25%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>78,51%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>64,42%</t>
-  </si>
-  <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
+    <t>35,58%</t>
+  </si>
+  <si>
+    <t>70,04%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>65,35%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>2,16%</t>
   </si>
   <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>34,42%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,63%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>35,47%</t>
-  </si>
-  <si>
-    <t>70,04%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>71,12%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
     <t>1,38%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
+    <t>25,61%</t>
   </si>
   <si>
     <t>27,92%</t>
   </si>
   <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
   </si>
   <si>
     <t>28,45%</t>
   </si>
   <si>
-    <t>30,22%</t>
+    <t>26,33%</t>
   </si>
   <si>
     <t>70,03%</t>
   </si>
   <si>
-    <t>66,83%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
   </si>
   <si>
     <t>70,7%</t>
   </si>
   <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>73,66%</t>
   </si>
   <si>
     <t>70,35%</t>
   </si>
   <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>72,42%</t>
   </si>
 </sst>
 </file>
@@ -2229,7 +2235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7452A352-2EA5-4545-85F4-806ED1F78398}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A702F65-F00F-4AC0-9E1B-C75AEF68F9D4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2783,10 +2789,10 @@
         <v>68</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="7">
         <v>15</v>
@@ -2795,13 +2801,13 @@
         <v>9751</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2822,13 @@
         <v>41826</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H13" s="7">
         <v>63</v>
@@ -2831,13 +2837,13 @@
         <v>39212</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M13" s="7">
         <v>126</v>
@@ -2846,13 +2852,13 @@
         <v>81037</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2867,13 +2873,13 @@
         <v>164884</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>240</v>
@@ -2882,13 +2888,13 @@
         <v>150293</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M14" s="7">
         <v>491</v>
@@ -2897,13 +2903,13 @@
         <v>315177</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2959,7 +2965,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2971,13 +2977,13 @@
         <v>3231</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -2986,13 +2992,13 @@
         <v>4516</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="M16" s="7">
         <v>13</v>
@@ -3007,7 +3013,7 @@
         <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,13 +3028,13 @@
         <v>38847</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>71</v>
@@ -3037,13 +3043,13 @@
         <v>41614</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>134</v>
@@ -3052,13 +3058,13 @@
         <v>80461</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3079,13 @@
         <v>107097</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>148</v>
@@ -3088,13 +3094,13 @@
         <v>90777</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>311</v>
@@ -3103,13 +3109,13 @@
         <v>197873</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3165,7 +3171,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3177,13 +3183,13 @@
         <v>4691</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="H20" s="7">
         <v>3</v>
@@ -3192,13 +3198,13 @@
         <v>2325</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -3207,13 +3213,13 @@
         <v>7017</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3234,13 @@
         <v>60994</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="H21" s="7">
         <v>76</v>
@@ -3243,13 +3249,13 @@
         <v>57233</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="M21" s="7">
         <v>165</v>
@@ -3258,13 +3264,13 @@
         <v>118227</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3285,13 @@
         <v>141443</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H22" s="7">
         <v>192</v>
@@ -3294,13 +3300,13 @@
         <v>147432</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="M22" s="7">
         <v>401</v>
@@ -3309,13 +3315,13 @@
         <v>288875</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3389,13 @@
         <v>13953</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H24" s="7">
         <v>23</v>
@@ -3398,13 +3404,13 @@
         <v>14223</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>15</v>
       </c>
       <c r="M24" s="7">
         <v>44</v>
@@ -3488,10 +3494,10 @@
         <v>164</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H26" s="7">
         <v>737</v>
@@ -3500,13 +3506,13 @@
         <v>497172</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M26" s="7">
         <v>1535</v>
@@ -3515,13 +3521,13 @@
         <v>1029540</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,7 +3583,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -3598,7 +3604,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3545FDB5-839E-4CA2-9E7A-EFDF11EF9AEF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5B9C9AD-02A5-4DB6-ABA8-FF0D9F5F81A0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3615,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3743,7 +3749,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3758,7 +3764,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3779,13 @@
         <v>3612</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -3788,13 +3794,13 @@
         <v>3766</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>8</v>
@@ -3803,13 +3809,13 @@
         <v>7378</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,10 +3830,10 @@
         <v>21843</v>
       </c>
       <c r="E6" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>187</v>
@@ -4206,7 +4212,7 @@
         <v>234</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>235</v>
+        <v>48</v>
       </c>
       <c r="M13" s="7">
         <v>159</v>
@@ -4215,7 +4221,7 @@
         <v>103922</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>107</v>
+        <v>235</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>236</v>
@@ -4251,13 +4257,13 @@
         <v>150691</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>460</v>
@@ -4266,13 +4272,13 @@
         <v>310265</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4328,7 +4334,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4340,13 +4346,13 @@
         <v>5146</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>246</v>
+        <v>45</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>247</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>248</v>
+        <v>13</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -4355,13 +4361,13 @@
         <v>4243</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>249</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="M16" s="7">
         <v>14</v>
@@ -4370,13 +4376,13 @@
         <v>9389</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4391,13 +4397,13 @@
         <v>41356</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>76</v>
@@ -4457,13 +4463,13 @@
         <v>102626</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M18" s="7">
         <v>344</v>
@@ -4472,13 +4478,13 @@
         <v>222715</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,7 +4540,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4546,13 +4552,13 @@
         <v>3390</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>273</v>
+        <v>73</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
@@ -4561,7 +4567,7 @@
         <v>4060</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>274</v>
@@ -4579,10 +4585,10 @@
         <v>276</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>66</v>
+        <v>277</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4597,13 +4603,13 @@
         <v>56936</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>73</v>
@@ -4612,13 +4618,13 @@
         <v>54996</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="M21" s="7">
         <v>150</v>
@@ -4627,13 +4633,13 @@
         <v>111932</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4648,13 +4654,13 @@
         <v>148069</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H22" s="7">
         <v>196</v>
@@ -4663,13 +4669,13 @@
         <v>150457</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M22" s="7">
         <v>397</v>
@@ -4678,13 +4684,13 @@
         <v>298527</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4752,13 +4758,13 @@
         <v>21660</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H24" s="7">
         <v>25</v>
@@ -4767,13 +4773,13 @@
         <v>17456</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>227</v>
+        <v>302</v>
       </c>
       <c r="M24" s="7">
         <v>56</v>
@@ -4782,13 +4788,13 @@
         <v>39116</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4803,13 +4809,13 @@
         <v>192556</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H25" s="7">
         <v>267</v>
@@ -4818,13 +4824,13 @@
         <v>181522</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="M25" s="7">
         <v>542</v>
@@ -4833,13 +4839,13 @@
         <v>374078</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>310</v>
+        <v>233</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4854,13 +4860,13 @@
         <v>537955</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H26" s="7">
         <v>731</v>
@@ -4869,13 +4875,13 @@
         <v>510951</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M26" s="7">
         <v>1497</v>
@@ -4884,13 +4890,13 @@
         <v>1048906</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4946,7 +4952,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -4967,7 +4973,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20EE576-CC04-47B3-B156-716E81175FDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3280749F-E599-4EEB-B895-A7DD3B6F1F69}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4984,7 +4990,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5097,7 +5103,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H4" s="7">
         <v>1</v>
@@ -5106,13 +5112,13 @@
         <v>1099</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>261</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>1</v>
@@ -5121,13 +5127,13 @@
         <v>1099</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5148,13 @@
         <v>4765</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>4</v>
@@ -5157,13 +5163,13 @@
         <v>3801</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>10</v>
@@ -5172,13 +5178,13 @@
         <v>8566</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5199,13 @@
         <v>20809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5208,13 +5214,13 @@
         <v>17627</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="M6" s="7">
         <v>43</v>
@@ -5223,13 +5229,13 @@
         <v>38436</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5303,13 @@
         <v>2814</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>44</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>4</v>
@@ -5315,10 +5321,10 @@
         <v>65</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>8</v>
@@ -5327,13 +5333,13 @@
         <v>5302</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5354,13 @@
         <v>35466</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="H9" s="7">
         <v>30</v>
@@ -5363,13 +5369,13 @@
         <v>19517</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="M9" s="7">
         <v>79</v>
@@ -5378,13 +5384,13 @@
         <v>54983</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>358</v>
+        <v>363</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,10 +5408,10 @@
         <v>212</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>129</v>
@@ -5414,13 +5420,13 @@
         <v>89175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>241</v>
@@ -5429,13 +5435,13 @@
         <v>173397</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5503,13 +5509,13 @@
         <v>3205</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>96</v>
+        <v>372</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>198</v>
+        <v>348</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>367</v>
+        <v>125</v>
       </c>
       <c r="H12" s="7">
         <v>7</v>
@@ -5518,13 +5524,13 @@
         <v>3920</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>72</v>
+        <v>375</v>
       </c>
       <c r="M12" s="7">
         <v>12</v>
@@ -5533,13 +5539,13 @@
         <v>7125</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5560,13 @@
         <v>75686</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="H13" s="7">
         <v>113</v>
@@ -5569,13 +5575,13 @@
         <v>69517</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
       <c r="M13" s="7">
         <v>225</v>
@@ -5584,13 +5590,13 @@
         <v>145203</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5605,13 +5611,13 @@
         <v>144842</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
       <c r="H14" s="7">
         <v>212</v>
@@ -5620,13 +5626,13 @@
         <v>132710</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="M14" s="7">
         <v>426</v>
@@ -5635,13 +5641,13 @@
         <v>277552</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5697,7 +5703,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5709,13 +5715,13 @@
         <v>1939</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -5724,13 +5730,13 @@
         <v>4638</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="M16" s="7">
         <v>12</v>
@@ -5742,10 +5748,10 @@
         <v>40</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5766,13 @@
         <v>54035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H17" s="7">
         <v>77</v>
@@ -5775,13 +5781,13 @@
         <v>45816</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>157</v>
@@ -5790,13 +5796,13 @@
         <v>99851</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5817,13 @@
         <v>108402</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>407</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="H18" s="7">
         <v>169</v>
@@ -5826,13 +5832,13 @@
         <v>102938</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>86</v>
+        <v>416</v>
       </c>
       <c r="M18" s="7">
         <v>329</v>
@@ -5841,13 +5847,13 @@
         <v>211341</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5903,7 +5909,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5915,13 +5921,13 @@
         <v>3414</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5936,7 +5942,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5945,13 +5951,13 @@
         <v>3414</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5972,13 @@
         <v>62641</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>303</v>
+        <v>427</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
       <c r="H21" s="7">
         <v>92</v>
@@ -5981,13 +5987,13 @@
         <v>67863</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="M21" s="7">
         <v>180</v>
@@ -5996,13 +6002,13 @@
         <v>130504</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6023,13 @@
         <v>136001</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="H22" s="7">
         <v>187</v>
@@ -6032,13 +6038,13 @@
         <v>138144</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="M22" s="7">
         <v>379</v>
@@ -6047,13 +6053,13 @@
         <v>274145</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>168</v>
+        <v>443</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6121,13 +6127,13 @@
         <v>11373</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>195</v>
+        <v>444</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>120</v>
+        <v>445</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>436</v>
+        <v>300</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -6136,13 +6142,13 @@
         <v>12145</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>437</v>
+        <v>353</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="M24" s="7">
         <v>38</v>
@@ -6151,13 +6157,13 @@
         <v>23518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>440</v>
+        <v>397</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>441</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6172,13 +6178,13 @@
         <v>232593</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="H25" s="7">
         <v>316</v>
@@ -6187,13 +6193,13 @@
         <v>206513</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>446</v>
+        <v>157</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="M25" s="7">
         <v>651</v>
@@ -6202,13 +6208,13 @@
         <v>439106</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6229,13 @@
         <v>494276</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="H26" s="7">
         <v>716</v>
@@ -6238,13 +6244,13 @@
         <v>480594</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="M26" s="7">
         <v>1418</v>
@@ -6253,13 +6259,13 @@
         <v>974870</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6315,7 +6321,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -6336,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{656D4B3B-611E-4D77-A9DD-B4EACA2E3CC4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA8F508F-CB41-4FAA-8FD7-0AD208CABBD5}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6353,7 +6359,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6466,7 +6472,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6481,7 +6487,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6496,7 +6502,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,10 +6520,10 @@
         <v>155</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -6526,13 +6532,13 @@
         <v>4114</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
@@ -6541,13 +6547,13 @@
         <v>7170</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6562,13 +6568,13 @@
         <v>9642</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>172</v>
+        <v>478</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -6577,13 +6583,13 @@
         <v>12161</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="M6" s="7">
         <v>33</v>
@@ -6592,13 +6598,13 @@
         <v>21803</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6672,7 +6678,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -6681,13 +6687,13 @@
         <v>698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>415</v>
+        <v>489</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -6696,13 +6702,13 @@
         <v>698</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>482</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6723,13 @@
         <v>33983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="H9" s="7">
         <v>53</v>
@@ -6732,13 +6738,13 @@
         <v>28314</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="M9" s="7">
         <v>106</v>
@@ -6747,13 +6753,13 @@
         <v>62296</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>489</v>
+        <v>497</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6768,13 +6774,13 @@
         <v>79210</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="H10" s="7">
         <v>112</v>
@@ -6783,13 +6789,13 @@
         <v>73502</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="M10" s="7">
         <v>210</v>
@@ -6798,13 +6804,13 @@
         <v>152712</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>499</v>
+        <v>142</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>500</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6878,13 @@
         <v>4057</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>482</v>
+        <v>507</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>272</v>
+        <v>508</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -6887,13 +6893,13 @@
         <v>1289</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -6902,13 +6908,13 @@
         <v>5346</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>506</v>
+        <v>248</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6929,13 @@
         <v>65639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>507</v>
+        <v>514</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>509</v>
+        <v>516</v>
       </c>
       <c r="H13" s="7">
         <v>82</v>
@@ -6938,13 +6944,13 @@
         <v>50220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>510</v>
+        <v>517</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>512</v>
+        <v>519</v>
       </c>
       <c r="M13" s="7">
         <v>189</v>
@@ -6953,13 +6959,13 @@
         <v>115858</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>514</v>
+        <v>206</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6974,13 +6980,13 @@
         <v>180490</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>516</v>
+        <v>115</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H14" s="7">
         <v>196</v>
@@ -6989,13 +6995,13 @@
         <v>140843</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="M14" s="7">
         <v>429</v>
@@ -7004,13 +7010,13 @@
         <v>321334</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>522</v>
+        <v>416</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7066,7 +7072,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -7078,13 +7084,13 @@
         <v>817</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>525</v>
+        <v>43</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -7093,13 +7099,13 @@
         <v>6417</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>415</v>
+        <v>530</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>526</v>
+        <v>147</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -7108,13 +7114,13 @@
         <v>7235</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7129,13 +7135,13 @@
         <v>56942</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H17" s="7">
         <v>62</v>
@@ -7144,13 +7150,13 @@
         <v>39682</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="M17" s="7">
         <v>141</v>
@@ -7159,13 +7165,13 @@
         <v>96624</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>537</v>
+        <v>542</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7180,13 +7186,13 @@
         <v>115061</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>539</v>
+        <v>264</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="H18" s="7">
         <v>153</v>
@@ -7195,13 +7201,13 @@
         <v>120014</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>543</v>
+        <v>504</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M18" s="7">
         <v>296</v>
@@ -7210,13 +7216,13 @@
         <v>235074</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7272,7 +7278,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7287,10 +7293,10 @@
         <v>99</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>505</v>
+        <v>551</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -7299,13 +7305,13 @@
         <v>543</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>222</v>
+        <v>272</v>
       </c>
       <c r="M20" s="7">
         <v>4</v>
@@ -7314,13 +7320,13 @@
         <v>3167</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>370</v>
+        <v>553</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>550</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7335,13 +7341,13 @@
         <v>49809</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>484</v>
+        <v>556</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="H21" s="7">
         <v>87</v>
@@ -7350,13 +7356,13 @@
         <v>58383</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="M21" s="7">
         <v>158</v>
@@ -7365,13 +7371,13 @@
         <v>108192</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>557</v>
+        <v>562</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7386,13 +7392,13 @@
         <v>122582</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>560</v>
+        <v>565</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>561</v>
+        <v>566</v>
       </c>
       <c r="H22" s="7">
         <v>150</v>
@@ -7401,13 +7407,13 @@
         <v>111157</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>562</v>
+        <v>567</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>564</v>
+        <v>569</v>
       </c>
       <c r="M22" s="7">
         <v>314</v>
@@ -7416,13 +7422,13 @@
         <v>233739</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>565</v>
+        <v>570</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>571</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>572</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7490,13 +7496,13 @@
         <v>7499</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>568</v>
+        <v>573</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="H24" s="7">
         <v>12</v>
@@ -7505,13 +7511,13 @@
         <v>8947</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>274</v>
+        <v>576</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>572</v>
+        <v>327</v>
       </c>
       <c r="M24" s="7">
         <v>20</v>
@@ -7520,13 +7526,13 @@
         <v>16446</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>573</v>
+        <v>249</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7541,13 +7547,13 @@
         <v>209428</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>284</v>
       </c>
       <c r="H25" s="7">
         <v>292</v>
@@ -7556,13 +7562,13 @@
         <v>180713</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="M25" s="7">
         <v>607</v>
@@ -7571,13 +7577,13 @@
         <v>390141</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>507</v>
+        <v>585</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>583</v>
+        <v>454</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7592,13 +7598,13 @@
         <v>506986</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="H26" s="7">
         <v>630</v>
@@ -7607,13 +7613,13 @@
         <v>457678</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="M26" s="7">
         <v>1282</v>
@@ -7622,13 +7628,13 @@
         <v>964664</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7684,7 +7690,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
